--- a/RUTINAS/EJERCICIOS PRESUPUESTO/INSUMOS_002/INSUMOS_TAMANIO/AREA/ESTIMACIONES_12_VARIABLES_EJER_PRESUPUESTO_AREA.xlsx
+++ b/RUTINAS/EJERCICIOS PRESUPUESTO/INSUMOS_002/INSUMOS_TAMANIO/AREA/ESTIMACIONES_12_VARIABLES_EJER_PRESUPUESTO_AREA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollambo\Desktop\GRUPO ENIGHUR\ENIGHUR\RUTINAS\EJERCICIOS PRESUPUESTO\INSUMOS_002\INSUMOS_TAMANIO\AREA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\INEC\GIT\ENIGHUR\ENIGHUR\RUTINAS\EJERCICIOS PRESUPUESTO\INSUMOS_002\INSUMOS_TAMANIO\AREA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FB0E98-A30F-43F6-B890-FCE9118113B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13128" windowHeight="6108"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="d1_mod" sheetId="13" r:id="rId1"/>
@@ -26,7 +27,20 @@
     <sheet name="d11" sheetId="11" r:id="rId12"/>
     <sheet name="d12" sheetId="12" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -90,7 +104,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -417,16 +431,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -476,7 +490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -490,7 +504,7 @@
         <v>1.1705477427137301</v>
       </c>
       <c r="E2">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F2">
         <v>3.2595392910863099</v>
@@ -521,14 +535,14 @@
       </c>
       <c r="P2">
         <f>B$2-(E$2*B$2)</f>
-        <v>152.57302269463486</v>
+        <v>154.21359283113628</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2" si="0">B2+(E2*B2)</f>
-        <v>175.54100460565513</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+        <v>173.90043446915371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -542,7 +556,7 @@
         <v>1.38033296619704</v>
       </c>
       <c r="E3">
-        <v>7.0000000000000007E-2</v>
+        <v>0.06</v>
       </c>
       <c r="F3">
         <v>2.3376143881102398</v>
@@ -578,14 +592,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -629,7 +643,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -673,7 +687,7 @@
         <v>0.36230423476861101</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -724,14 +738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -775,7 +789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -819,7 +833,7 @@
         <v>0.45290778109298302</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -870,14 +884,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -921,7 +935,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -965,7 +979,7 @@
         <v>0.248423716662205</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1016,14 +1030,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1111,7 +1125,7 @@
         <v>0.58702661757407604</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1162,16 +1176,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1215,7 +1229,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1259,7 +1273,7 @@
         <v>0.21634885938457199</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1310,14 +1324,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1375,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1405,7 +1419,7 @@
         <v>0.13709528960588699</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1456,14 +1470,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1507,7 +1521,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1551,7 +1565,7 @@
         <v>0.374619940375577</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1602,14 +1616,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1653,7 +1667,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1697,7 +1711,7 @@
         <v>1.12339328836805</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1748,14 +1762,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1799,7 +1813,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1843,7 +1857,7 @@
         <v>0.83338564388402803</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1894,14 +1908,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1945,7 +1959,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1989,7 +2003,7 @@
         <v>0.27341278512903899</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2040,14 +2054,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2091,7 +2105,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2135,7 +2149,7 @@
         <v>0.25342199484543199</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2186,14 +2200,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2237,7 +2251,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2281,7 +2295,7 @@
         <v>0.74568626631586898</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>

--- a/RUTINAS/EJERCICIOS PRESUPUESTO/INSUMOS_002/INSUMOS_TAMANIO/AREA/ESTIMACIONES_12_VARIABLES_EJER_PRESUPUESTO_AREA.xlsx
+++ b/RUTINAS/EJERCICIOS PRESUPUESTO/INSUMOS_002/INSUMOS_TAMANIO/AREA/ESTIMACIONES_12_VARIABLES_EJER_PRESUPUESTO_AREA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Omar\INEC\GIT\ENIGHUR\ENIGHUR\RUTINAS\EJERCICIOS PRESUPUESTO\INSUMOS_002\INSUMOS_TAMANIO\AREA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ollambo\Desktop\GRUPO ENIGHUR\ENIGHUR\RUTINAS\EJERCICIOS PRESUPUESTO\INSUMOS_002\INSUMOS_TAMANIO\AREA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FB0E98-A30F-43F6-B890-FCE9118113B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20376" yWindow="-120" windowWidth="15600" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="d1_mod" sheetId="13" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <sheet name="d11" sheetId="11" r:id="rId12"/>
     <sheet name="d12" sheetId="12" r:id="rId13"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -104,7 +103,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -431,16 +430,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +489,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -504,7 +503,7 @@
         <v>1.1705477427137301</v>
       </c>
       <c r="E2">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F2">
         <v>3.2595392910863099</v>
@@ -534,15 +533,19 @@
         <v>0.21634885938457199</v>
       </c>
       <c r="P2">
-        <f>B$2-(E$2*B$2)</f>
-        <v>154.21359283113628</v>
+        <f>B2-(E2*B2)</f>
+        <v>157.49473310413919</v>
       </c>
       <c r="Q2">
         <f t="shared" ref="Q2" si="0">B2+(E2*B2)</f>
-        <v>173.90043446915371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+        <v>170.6192941961508</v>
+      </c>
+      <c r="R2">
+        <f>Q2-P2</f>
+        <v>13.124561092011618</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -556,7 +559,7 @@
         <v>1.38033296619704</v>
       </c>
       <c r="E3">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="F3">
         <v>2.3376143881102398</v>
@@ -584,6 +587,18 @@
       </c>
       <c r="N3">
         <v>0.12806013158301299</v>
+      </c>
+      <c r="P3">
+        <f>B3-(E3*B3)</f>
+        <v>119.21155769590176</v>
+      </c>
+      <c r="Q3">
+        <f>B3+(E3*B3)</f>
+        <v>129.14585417056023</v>
+      </c>
+      <c r="R3">
+        <f>Q3-P3</f>
+        <v>9.934296474658467</v>
       </c>
     </row>
   </sheetData>
@@ -592,14 +607,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -643,7 +658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -687,7 +702,7 @@
         <v>0.36230423476861101</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -738,14 +753,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -789,7 +804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -833,7 +848,7 @@
         <v>0.45290778109298302</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -884,14 +899,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -935,7 +950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -979,7 +994,7 @@
         <v>0.248423716662205</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1030,14 +1045,14 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1081,7 +1096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1125,7 +1140,7 @@
         <v>0.58702661757407604</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1176,16 +1191,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1229,7 +1244,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1273,7 +1288,7 @@
         <v>0.21634885938457199</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1324,14 +1339,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1375,7 +1390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1419,7 +1434,7 @@
         <v>0.13709528960588699</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1470,14 +1485,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1521,7 +1536,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1565,7 +1580,7 @@
         <v>0.374619940375577</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1616,14 +1631,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1711,7 +1726,7 @@
         <v>1.12339328836805</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1762,14 +1777,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1813,7 +1828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -1857,7 +1872,7 @@
         <v>0.83338564388402803</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -1908,14 +1923,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1959,7 +1974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2003,7 +2018,7 @@
         <v>0.27341278512903899</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2054,14 +2069,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2105,7 +2120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2149,7 +2164,7 @@
         <v>0.25342199484543199</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -2200,14 +2215,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2251,7 +2266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -2295,7 +2310,7 @@
         <v>0.74568626631586898</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>15</v>
       </c>
